--- a/武库内容变化.xlsx
+++ b/武库内容变化.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\CS饰品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B11C135-98E0-4086-AD2B-FEDE3100413D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B485A9-64D1-4056-B76A-270E3AB1B980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7305" yWindow="3315" windowWidth="21600" windowHeight="11250" xr2:uid="{E6107EBA-66A3-4BC0-B07B-0ED52F7CD03B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{E6107EBA-66A3-4BC0-B07B-0ED52F7CD03B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>迷链挂件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,46 @@
   </si>
   <si>
     <t>幽独M4A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.10.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷链社区挂件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-画廊武器箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-角色手作印花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-平面收藏品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-沙鹰热处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-XM幽独</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸弹博士挂件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025社区印花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脸谱2号印花</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,8 +183,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -461,19 +504,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152ACDE8-2AF2-427F-9E59-C89B3AF0777F}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.58203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,54 +527,81 @@
       <c r="C1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -539,6 +610,9 @@
       </c>
       <c r="C10" t="s">
         <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
